--- a/readXL/glossary.xlsx
+++ b/readXL/glossary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wayne/Documents/programming/ruby/readXL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wayne/dita-glossary-authoring-and-publishing/readXL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2FE84B-F566-1C49-8259-89FB23AD8D43}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABF9DF1-83A5-6841-963D-4E6949DDC136}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5440" windowWidth="28040" windowHeight="17440" xr2:uid="{F531A1D2-2AD9-0E49-B1B6-5733E1D5F38A}"/>
+    <workbookView xWindow="18520" yWindow="12080" windowWidth="28040" windowHeight="17440" xr2:uid="{F531A1D2-2AD9-0E49-B1B6-5733E1D5F38A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Word</t>
   </si>
@@ -42,13 +42,19 @@
     <t>conspicuous</t>
   </si>
   <si>
-    <t>standing out so as to be clearly visible.</t>
-  </si>
-  <si>
     <t>gaiety</t>
   </si>
   <si>
-    <t>the state or quality of being lighthearted or cheerful.</t>
+    <t>fo'c'sle</t>
+  </si>
+  <si>
+    <t>The upper deck of a sailing ship forward of the foremast, or the forward part of a ship with the sailors' living quarters.</t>
+  </si>
+  <si>
+    <t>Standing out so as to be clearly visible.</t>
+  </si>
+  <si>
+    <t>The state or quality of being lighthearted or cheerful.</t>
   </si>
 </sst>
 </file>
@@ -411,16 +417,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE80070-504B-E94F-81EE-E33109527924}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.33203125" customWidth="1"/>
-    <col min="2" max="2" width="52.5" customWidth="1"/>
+    <col min="2" max="2" width="99" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -436,14 +442,22 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/readXL/glossary.xlsx
+++ b/readXL/glossary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wayne/dita-glossary-authoring-and-publishing/readXL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waybri01/gitrepos/dita-glossary-authoring-and-publishing/readXL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABF9DF1-83A5-6841-963D-4E6949DDC136}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0166042-CDDB-B844-86DD-4191D72A4713}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18520" yWindow="12080" windowWidth="28040" windowHeight="17440" xr2:uid="{F531A1D2-2AD9-0E49-B1B6-5733E1D5F38A}"/>
+    <workbookView xWindow="10360" yWindow="6560" windowWidth="28040" windowHeight="17440" xr2:uid="{F531A1D2-2AD9-0E49-B1B6-5733E1D5F38A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Word</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>The state or quality of being lighthearted or cheerful.</t>
+  </si>
+  <si>
+    <t>pirate</t>
+  </si>
+  <si>
+    <t>A person who attacks and robs ships at sea.</t>
   </si>
 </sst>
 </file>
@@ -417,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE80070-504B-E94F-81EE-E33109527924}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,6 +467,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
